--- a/LampGame/LampGame/stagedata/Stage0.xlsx
+++ b/LampGame/LampGame/stagedata/Stage0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\LampGame\LampGame\stagedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\ランカゲ\LampGame\LampGame\stagedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CK18" sqref="CK18:CL18"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -3063,47 +3063,47 @@
         <v>0</v>
       </c>
       <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
         <v>3</v>
       </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
       <c r="AU9" s="1">
         <v>0</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -3443,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="1">
         <v>1</v>
